--- a/tools/doseResponse/DR_Excel.xlsx
+++ b/tools/doseResponse/DR_Excel.xlsx
@@ -137,7 +137,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -162,7 +162,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 2" descr="Picture"/>
@@ -237,7 +237,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="5" name="Image 5" descr="Picture"/>
@@ -262,7 +262,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="6" name="Image 6" descr="Picture"/>
@@ -337,7 +337,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="9" name="Image 9" descr="Picture"/>
@@ -362,7 +362,7 @@
       <row>5</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="10" name="Image 10" descr="Picture"/>
@@ -387,7 +387,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="11" name="Image 11" descr="Picture"/>
@@ -412,7 +412,7 @@
       <row>6</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="12" name="Image 12" descr="Picture"/>
@@ -437,7 +437,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="13" name="Image 13" descr="Picture"/>
@@ -462,7 +462,7 @@
       <row>7</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="14" name="Image 14" descr="Picture"/>
@@ -487,7 +487,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="15" name="Image 15" descr="Picture"/>
@@ -512,7 +512,7 @@
       <row>8</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="16" name="Image 16" descr="Picture"/>
@@ -587,7 +587,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="19" name="Image 19" descr="Picture"/>
@@ -612,7 +612,7 @@
       <row>10</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="20" name="Image 20" descr="Picture"/>
@@ -637,7 +637,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="21" name="Image 21" descr="Picture"/>
@@ -662,7 +662,7 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="22" name="Image 22" descr="Picture"/>
@@ -687,7 +687,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="23" name="Image 23" descr="Picture"/>
@@ -712,7 +712,7 @@
       <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="24" name="Image 24" descr="Picture"/>
@@ -887,7 +887,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2038350"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="31" name="Image 31" descr="Picture"/>
@@ -912,7 +912,7 @@
       <row>16</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2038350"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="32" name="Image 32" descr="Picture"/>
@@ -937,7 +937,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="33" name="Image 33" descr="Picture"/>
@@ -962,7 +962,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="34" name="Image 34" descr="Picture"/>
@@ -1187,7 +1187,7 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2809875" cy="2038350"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="43" name="Image 43" descr="Picture"/>
@@ -1212,7 +1212,7 @@
       <row>22</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2809875" cy="2038350"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="44" name="Image 44" descr="Picture"/>
@@ -1237,7 +1237,7 @@
       <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="45" name="Image 45" descr="Picture"/>
@@ -1262,7 +1262,7 @@
       <row>23</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="46" name="Image 46" descr="Picture"/>
@@ -1337,7 +1337,7 @@
       <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2647950" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="49" name="Image 49" descr="Picture"/>
@@ -1362,7 +1362,7 @@
       <row>25</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2647950" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="50" name="Image 50" descr="Picture"/>
@@ -1487,7 +1487,7 @@
       <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="55" name="Image 55" descr="Picture"/>
@@ -1512,7 +1512,7 @@
       <row>28</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="56" name="Image 56" descr="Picture"/>
@@ -1537,7 +1537,7 @@
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="57" name="Image 57" descr="Picture"/>
@@ -1562,7 +1562,7 @@
       <row>29</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="58" name="Image 58" descr="Picture"/>
@@ -1587,7 +1587,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="59" name="Image 59" descr="Picture"/>
@@ -1612,7 +1612,7 @@
       <row>30</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="60" name="Image 60" descr="Picture"/>
@@ -1687,7 +1687,7 @@
       <row>32</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="63" name="Image 63" descr="Picture"/>
@@ -1712,7 +1712,7 @@
       <row>32</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="64" name="Image 64" descr="Picture"/>
@@ -1737,7 +1737,7 @@
       <row>33</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="65" name="Image 65" descr="Picture"/>
@@ -1762,7 +1762,7 @@
       <row>33</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="66" name="Image 66" descr="Picture"/>
@@ -1887,7 +1887,7 @@
       <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="71" name="Image 71" descr="Picture"/>
@@ -1912,7 +1912,7 @@
       <row>36</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="72" name="Image 72" descr="Picture"/>
@@ -1937,7 +1937,7 @@
       <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="73" name="Image 73" descr="Picture"/>
@@ -1962,7 +1962,7 @@
       <row>37</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="74" name="Image 74" descr="Picture"/>
@@ -2037,7 +2037,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="77" name="Image 77" descr="Picture"/>
@@ -2062,7 +2062,7 @@
       <row>39</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="78" name="Image 78" descr="Picture"/>
@@ -2087,7 +2087,7 @@
       <row>40</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="79" name="Image 79" descr="Picture"/>
@@ -2112,7 +2112,7 @@
       <row>40</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="80" name="Image 80" descr="Picture"/>
@@ -2137,7 +2137,7 @@
       <row>41</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2847975" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="81" name="Image 81" descr="Picture"/>
@@ -2162,7 +2162,7 @@
       <row>41</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2847975" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="82" name="Image 82" descr="Picture"/>
@@ -2187,7 +2187,7 @@
       <row>42</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2809875" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="83" name="Image 83" descr="Picture"/>
@@ -2212,7 +2212,7 @@
       <row>42</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2809875" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="84" name="Image 84" descr="Picture"/>
@@ -2237,7 +2237,7 @@
       <row>43</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2771775" cy="2009775"/>
+    <ext cx="2847975" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="85" name="Image 85" descr="Picture"/>
@@ -2262,7 +2262,7 @@
       <row>43</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2771775" cy="2009775"/>
+    <ext cx="2847975" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="86" name="Image 86" descr="Picture"/>
@@ -2287,7 +2287,7 @@
       <row>44</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="87" name="Image 87" descr="Picture"/>
@@ -2312,7 +2312,7 @@
       <row>44</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="88" name="Image 88" descr="Picture"/>
@@ -2337,7 +2337,7 @@
       <row>45</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="89" name="Image 89" descr="Picture"/>
@@ -2362,7 +2362,7 @@
       <row>45</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="90" name="Image 90" descr="Picture"/>
@@ -2387,7 +2387,7 @@
       <row>46</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="91" name="Image 91" descr="Picture"/>
@@ -2412,7 +2412,7 @@
       <row>46</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="92" name="Image 92" descr="Picture"/>
@@ -2537,7 +2537,7 @@
       <row>49</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="97" name="Image 97" descr="Picture"/>
@@ -2562,7 +2562,7 @@
       <row>49</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="98" name="Image 98" descr="Picture"/>
@@ -2587,7 +2587,7 @@
       <row>50</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="99" name="Image 99" descr="Picture"/>
@@ -2612,7 +2612,7 @@
       <row>50</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="100" name="Image 100" descr="Picture"/>
@@ -2637,7 +2637,7 @@
       <row>51</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="101" name="Image 101" descr="Picture"/>
@@ -2662,7 +2662,7 @@
       <row>51</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="102" name="Image 102" descr="Picture"/>
@@ -2687,7 +2687,7 @@
       <row>52</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="103" name="Image 103" descr="Picture"/>
@@ -2712,7 +2712,7 @@
       <row>52</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="104" name="Image 104" descr="Picture"/>
@@ -2787,7 +2787,7 @@
       <row>54</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="107" name="Image 107" descr="Picture"/>
@@ -2812,7 +2812,7 @@
       <row>54</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="108" name="Image 108" descr="Picture"/>
@@ -2837,7 +2837,7 @@
       <row>55</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="109" name="Image 109" descr="Picture"/>
@@ -2862,7 +2862,7 @@
       <row>55</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="110" name="Image 110" descr="Picture"/>
@@ -2887,7 +2887,7 @@
       <row>56</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="111" name="Image 111" descr="Picture"/>
@@ -2912,7 +2912,7 @@
       <row>56</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="112" name="Image 112" descr="Picture"/>
@@ -2937,7 +2937,7 @@
       <row>57</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="113" name="Image 113" descr="Picture"/>
@@ -2962,7 +2962,7 @@
       <row>57</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="114" name="Image 114" descr="Picture"/>
@@ -2987,7 +2987,7 @@
       <row>58</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="115" name="Image 115" descr="Picture"/>
@@ -3012,7 +3012,7 @@
       <row>58</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="116" name="Image 116" descr="Picture"/>
@@ -3037,7 +3037,7 @@
       <row>59</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="117" name="Image 117" descr="Picture"/>
@@ -3062,7 +3062,7 @@
       <row>59</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="118" name="Image 118" descr="Picture"/>
@@ -3287,7 +3287,7 @@
       <row>64</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="127" name="Image 127" descr="Picture"/>
@@ -3312,7 +3312,7 @@
       <row>64</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="128" name="Image 128" descr="Picture"/>
@@ -3337,7 +3337,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="129" name="Image 129" descr="Picture"/>
@@ -3362,7 +3362,7 @@
       <row>65</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="130" name="Image 130" descr="Picture"/>
@@ -3487,7 +3487,7 @@
       <row>68</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="135" name="Image 135" descr="Picture"/>
@@ -3512,7 +3512,7 @@
       <row>68</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="136" name="Image 136" descr="Picture"/>
@@ -3537,7 +3537,7 @@
       <row>69</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="137" name="Image 137" descr="Picture"/>
@@ -3562,7 +3562,7 @@
       <row>69</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="138" name="Image 138" descr="Picture"/>
@@ -3587,7 +3587,7 @@
       <row>70</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="139" name="Image 139" descr="Picture"/>
@@ -3612,7 +3612,7 @@
       <row>70</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="140" name="Image 140" descr="Picture"/>
@@ -3687,7 +3687,7 @@
       <row>72</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="143" name="Image 143" descr="Picture"/>
@@ -3712,7 +3712,7 @@
       <row>72</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="144" name="Image 144" descr="Picture"/>
@@ -3737,7 +3737,7 @@
       <row>73</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="145" name="Image 145" descr="Picture"/>
@@ -3762,7 +3762,7 @@
       <row>73</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="146" name="Image 146" descr="Picture"/>
@@ -3837,7 +3837,7 @@
       <row>75</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="149" name="Image 149" descr="Picture"/>
@@ -3862,7 +3862,7 @@
       <row>75</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="150" name="Image 150" descr="Picture"/>
@@ -3887,7 +3887,7 @@
       <row>76</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="151" name="Image 151" descr="Picture"/>
@@ -3912,7 +3912,7 @@
       <row>76</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="152" name="Image 152" descr="Picture"/>
@@ -4037,7 +4037,7 @@
       <row>79</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="157" name="Image 157" descr="Picture"/>
@@ -4062,7 +4062,7 @@
       <row>79</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="158" name="Image 158" descr="Picture"/>
@@ -4087,7 +4087,7 @@
       <row>80</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="159" name="Image 159" descr="Picture"/>
@@ -4112,7 +4112,7 @@
       <row>80</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="160" name="Image 160" descr="Picture"/>
@@ -4137,7 +4137,7 @@
       <row>81</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="161" name="Image 161" descr="Picture"/>
@@ -4162,7 +4162,7 @@
       <row>81</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="162" name="Image 162" descr="Picture"/>
@@ -4287,7 +4287,7 @@
       <row>84</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="167" name="Image 167" descr="Picture"/>
@@ -4312,7 +4312,7 @@
       <row>84</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="168" name="Image 168" descr="Picture"/>
@@ -4337,7 +4337,7 @@
       <row>85</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="169" name="Image 169" descr="Picture"/>
@@ -4362,7 +4362,7 @@
       <row>85</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="170" name="Image 170" descr="Picture"/>
@@ -4387,7 +4387,7 @@
       <row>86</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="171" name="Image 171" descr="Picture"/>
@@ -4412,7 +4412,7 @@
       <row>86</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="172" name="Image 172" descr="Picture"/>
@@ -4437,7 +4437,7 @@
       <row>87</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="173" name="Image 173" descr="Picture"/>
@@ -4462,7 +4462,7 @@
       <row>87</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="174" name="Image 174" descr="Picture"/>
@@ -4487,7 +4487,7 @@
       <row>88</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2009775"/>
+    <ext cx="2867025" cy="2019300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="175" name="Image 175" descr="Picture"/>
@@ -4512,7 +4512,7 @@
       <row>88</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2009775"/>
+    <ext cx="2867025" cy="2019300"/>
     <pic>
       <nvPicPr>
         <cNvPr id="176" name="Image 176" descr="Picture"/>
@@ -4537,7 +4537,7 @@
       <row>89</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="177" name="Image 177" descr="Picture"/>
@@ -4562,7 +4562,7 @@
       <row>89</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="178" name="Image 178" descr="Picture"/>
@@ -4587,7 +4587,7 @@
       <row>90</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="179" name="Image 179" descr="Picture"/>
@@ -4612,7 +4612,7 @@
       <row>90</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="180" name="Image 180" descr="Picture"/>
@@ -4687,7 +4687,7 @@
       <row>92</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="183" name="Image 183" descr="Picture"/>
@@ -4712,7 +4712,7 @@
       <row>92</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="184" name="Image 184" descr="Picture"/>
@@ -4787,7 +4787,7 @@
       <row>94</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="187" name="Image 187" descr="Picture"/>
@@ -4812,7 +4812,7 @@
       <row>94</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="188" name="Image 188" descr="Picture"/>
@@ -4887,7 +4887,7 @@
       <row>96</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="191" name="Image 191" descr="Picture"/>
@@ -4912,7 +4912,7 @@
       <row>96</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="192" name="Image 192" descr="Picture"/>
@@ -4987,7 +4987,7 @@
       <row>98</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2752725" cy="2009775"/>
+    <ext cx="2828925" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="195" name="Image 195" descr="Picture"/>
@@ -5012,7 +5012,7 @@
       <row>98</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2752725" cy="2009775"/>
+    <ext cx="2828925" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="196" name="Image 196" descr="Picture"/>
@@ -5037,7 +5037,7 @@
       <row>99</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="197" name="Image 197" descr="Picture"/>
@@ -5062,7 +5062,7 @@
       <row>99</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="198" name="Image 198" descr="Picture"/>
@@ -5137,7 +5137,7 @@
       <row>101</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="201" name="Image 201" descr="Picture"/>
@@ -5162,7 +5162,7 @@
       <row>101</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="202" name="Image 202" descr="Picture"/>
@@ -5237,7 +5237,7 @@
       <row>103</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="205" name="Image 205" descr="Picture"/>
@@ -5262,7 +5262,7 @@
       <row>103</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="206" name="Image 206" descr="Picture"/>
@@ -5437,7 +5437,7 @@
       <row>107</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="213" name="Image 213" descr="Picture"/>
@@ -5462,7 +5462,7 @@
       <row>107</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="214" name="Image 214" descr="Picture"/>
@@ -5587,7 +5587,7 @@
       <row>110</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="219" name="Image 219" descr="Picture"/>
@@ -5612,7 +5612,7 @@
       <row>110</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="220" name="Image 220" descr="Picture"/>
@@ -5737,7 +5737,7 @@
       <row>113</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="225" name="Image 225" descr="Picture"/>
@@ -5762,7 +5762,7 @@
       <row>113</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="226" name="Image 226" descr="Picture"/>
@@ -5787,7 +5787,7 @@
       <row>114</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="227" name="Image 227" descr="Picture"/>
@@ -5812,7 +5812,7 @@
       <row>114</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="228" name="Image 228" descr="Picture"/>
@@ -5837,7 +5837,7 @@
       <row>115</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="229" name="Image 229" descr="Picture"/>
@@ -5862,7 +5862,7 @@
       <row>115</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="230" name="Image 230" descr="Picture"/>
@@ -5887,7 +5887,7 @@
       <row>116</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="231" name="Image 231" descr="Picture"/>
@@ -5912,7 +5912,7 @@
       <row>116</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="232" name="Image 232" descr="Picture"/>
@@ -5987,7 +5987,7 @@
       <row>118</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="235" name="Image 235" descr="Picture"/>
@@ -6012,7 +6012,7 @@
       <row>118</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="236" name="Image 236" descr="Picture"/>
@@ -6037,7 +6037,7 @@
       <row>119</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="237" name="Image 237" descr="Picture"/>
@@ -6062,7 +6062,7 @@
       <row>119</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="238" name="Image 238" descr="Picture"/>
@@ -6087,7 +6087,7 @@
       <row>120</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="239" name="Image 239" descr="Picture"/>
@@ -6112,7 +6112,7 @@
       <row>120</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="240" name="Image 240" descr="Picture"/>
@@ -6137,7 +6137,7 @@
       <row>121</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="241" name="Image 241" descr="Picture"/>
@@ -6162,7 +6162,7 @@
       <row>121</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="242" name="Image 242" descr="Picture"/>
@@ -6187,7 +6187,7 @@
       <row>122</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="243" name="Image 243" descr="Picture"/>
@@ -6212,7 +6212,7 @@
       <row>122</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="244" name="Image 244" descr="Picture"/>
@@ -6237,7 +6237,7 @@
       <row>123</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="245" name="Image 245" descr="Picture"/>
@@ -6262,7 +6262,7 @@
       <row>123</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="246" name="Image 246" descr="Picture"/>
@@ -6437,7 +6437,7 @@
       <row>127</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="253" name="Image 253" descr="Picture"/>
@@ -6462,7 +6462,7 @@
       <row>127</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="254" name="Image 254" descr="Picture"/>
@@ -6487,7 +6487,7 @@
       <row>128</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="255" name="Image 255" descr="Picture"/>
@@ -6512,7 +6512,7 @@
       <row>128</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="256" name="Image 256" descr="Picture"/>
@@ -6537,7 +6537,7 @@
       <row>129</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="257" name="Image 257" descr="Picture"/>
@@ -6562,7 +6562,7 @@
       <row>129</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="258" name="Image 258" descr="Picture"/>
@@ -6587,7 +6587,7 @@
       <row>130</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="259" name="Image 259" descr="Picture"/>
@@ -6612,7 +6612,7 @@
       <row>130</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="260" name="Image 260" descr="Picture"/>
@@ -6637,7 +6637,7 @@
       <row>131</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="261" name="Image 261" descr="Picture"/>
@@ -6662,7 +6662,7 @@
       <row>131</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="262" name="Image 262" descr="Picture"/>
@@ -6787,7 +6787,7 @@
       <row>134</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="267" name="Image 267" descr="Picture"/>
@@ -6812,7 +6812,7 @@
       <row>134</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="268" name="Image 268" descr="Picture"/>
@@ -6837,7 +6837,7 @@
       <row>135</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="269" name="Image 269" descr="Picture"/>
@@ -6862,7 +6862,7 @@
       <row>135</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="270" name="Image 270" descr="Picture"/>
@@ -6887,7 +6887,7 @@
       <row>136</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="271" name="Image 271" descr="Picture"/>
@@ -6912,7 +6912,7 @@
       <row>136</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2028825"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="272" name="Image 272" descr="Picture"/>
@@ -6937,7 +6937,7 @@
       <row>137</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="273" name="Image 273" descr="Picture"/>
@@ -6962,7 +6962,7 @@
       <row>137</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="274" name="Image 274" descr="Picture"/>
@@ -6987,7 +6987,7 @@
       <row>138</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="275" name="Image 275" descr="Picture"/>
@@ -7012,7 +7012,7 @@
       <row>138</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="276" name="Image 276" descr="Picture"/>
@@ -7037,7 +7037,7 @@
       <row>139</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="277" name="Image 277" descr="Picture"/>
@@ -7062,7 +7062,7 @@
       <row>139</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="278" name="Image 278" descr="Picture"/>
@@ -7137,7 +7137,7 @@
       <row>141</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="281" name="Image 281" descr="Picture"/>
@@ -7162,7 +7162,7 @@
       <row>141</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="282" name="Image 282" descr="Picture"/>
@@ -7287,7 +7287,7 @@
       <row>144</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="287" name="Image 287" descr="Picture"/>
@@ -7312,7 +7312,7 @@
       <row>144</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2019300"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="288" name="Image 288" descr="Picture"/>
@@ -7387,7 +7387,7 @@
       <row>146</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="291" name="Image 291" descr="Picture"/>
@@ -7412,7 +7412,7 @@
       <row>146</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="292" name="Image 292" descr="Picture"/>
@@ -7437,7 +7437,7 @@
       <row>147</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="293" name="Image 293" descr="Picture"/>
@@ -7462,7 +7462,7 @@
       <row>147</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="294" name="Image 294" descr="Picture"/>
@@ -7487,7 +7487,7 @@
       <row>148</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="295" name="Image 295" descr="Picture"/>
@@ -7512,7 +7512,7 @@
       <row>148</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="296" name="Image 296" descr="Picture"/>
@@ -7537,7 +7537,7 @@
       <row>149</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2047875"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="297" name="Image 297" descr="Picture"/>
@@ -7562,7 +7562,7 @@
       <row>149</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2867025" cy="2047875"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="298" name="Image 298" descr="Picture"/>
@@ -7587,7 +7587,7 @@
       <row>150</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="299" name="Image 299" descr="Picture"/>
@@ -7612,7 +7612,7 @@
       <row>150</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="300" name="Image 300" descr="Picture"/>
@@ -7637,7 +7637,7 @@
       <row>151</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="301" name="Image 301" descr="Picture"/>
@@ -7662,7 +7662,7 @@
       <row>151</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="302" name="Image 302" descr="Picture"/>
@@ -7687,7 +7687,7 @@
       <row>152</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="303" name="Image 303" descr="Picture"/>
@@ -7712,7 +7712,7 @@
       <row>152</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="304" name="Image 304" descr="Picture"/>
@@ -7737,7 +7737,7 @@
       <row>153</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="305" name="Image 305" descr="Picture"/>
@@ -7762,7 +7762,7 @@
       <row>153</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="306" name="Image 306" descr="Picture"/>
@@ -7837,7 +7837,7 @@
       <row>155</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="309" name="Image 309" descr="Picture"/>
@@ -7862,7 +7862,7 @@
       <row>155</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="310" name="Image 310" descr="Picture"/>
@@ -7887,7 +7887,7 @@
       <row>156</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2743200" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="311" name="Image 311" descr="Picture"/>
@@ -7912,7 +7912,7 @@
       <row>156</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2743200" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="312" name="Image 312" descr="Picture"/>
@@ -7937,7 +7937,7 @@
       <row>157</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="313" name="Image 313" descr="Picture"/>
@@ -7962,7 +7962,7 @@
       <row>157</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="314" name="Image 314" descr="Picture"/>
@@ -7987,7 +7987,7 @@
       <row>158</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="315" name="Image 315" descr="Picture"/>
@@ -8012,7 +8012,7 @@
       <row>158</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="316" name="Image 316" descr="Picture"/>
@@ -8037,7 +8037,7 @@
       <row>159</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2743200" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="317" name="Image 317" descr="Picture"/>
@@ -8062,7 +8062,7 @@
       <row>159</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2743200" cy="2009775"/>
+    <ext cx="2819400" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="318" name="Image 318" descr="Picture"/>
@@ -8087,7 +8087,7 @@
       <row>160</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="319" name="Image 319" descr="Picture"/>
@@ -8112,7 +8112,7 @@
       <row>160</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="320" name="Image 320" descr="Picture"/>
@@ -8137,7 +8137,7 @@
       <row>161</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="321" name="Image 321" descr="Picture"/>
@@ -8162,7 +8162,7 @@
       <row>161</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="322" name="Image 322" descr="Picture"/>
@@ -8187,7 +8187,7 @@
       <row>162</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="323" name="Image 323" descr="Picture"/>
@@ -8212,7 +8212,7 @@
       <row>162</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="324" name="Image 324" descr="Picture"/>
@@ -8237,7 +8237,7 @@
       <row>163</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="325" name="Image 325" descr="Picture"/>
@@ -8262,7 +8262,7 @@
       <row>163</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="326" name="Image 326" descr="Picture"/>
@@ -8337,7 +8337,7 @@
       <row>165</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="329" name="Image 329" descr="Picture"/>
@@ -8362,7 +8362,7 @@
       <row>165</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="330" name="Image 330" descr="Picture"/>
@@ -8387,7 +8387,7 @@
       <row>166</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="331" name="Image 331" descr="Picture"/>
@@ -8412,7 +8412,7 @@
       <row>166</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="332" name="Image 332" descr="Picture"/>
@@ -8437,7 +8437,7 @@
       <row>167</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="333" name="Image 333" descr="Picture"/>
@@ -8462,7 +8462,7 @@
       <row>167</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="334" name="Image 334" descr="Picture"/>
@@ -8537,7 +8537,7 @@
       <row>169</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="337" name="Image 337" descr="Picture"/>
@@ -8562,7 +8562,7 @@
       <row>169</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="338" name="Image 338" descr="Picture"/>
@@ -8587,7 +8587,7 @@
       <row>170</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="339" name="Image 339" descr="Picture"/>
@@ -8612,7 +8612,7 @@
       <row>170</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="340" name="Image 340" descr="Picture"/>
@@ -8637,7 +8637,7 @@
       <row>171</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="341" name="Image 341" descr="Picture"/>
@@ -8662,7 +8662,7 @@
       <row>171</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="342" name="Image 342" descr="Picture"/>
@@ -8737,7 +8737,7 @@
       <row>173</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="345" name="Image 345" descr="Picture"/>
@@ -8762,7 +8762,7 @@
       <row>173</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2790825" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="346" name="Image 346" descr="Picture"/>
@@ -8837,7 +8837,7 @@
       <row>175</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="349" name="Image 349" descr="Picture"/>
@@ -8862,7 +8862,7 @@
       <row>175</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="350" name="Image 350" descr="Picture"/>
@@ -8887,7 +8887,7 @@
       <row>176</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="351" name="Image 351" descr="Picture"/>
@@ -8912,7 +8912,7 @@
       <row>176</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2733675" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="352" name="Image 352" descr="Picture"/>
@@ -9087,7 +9087,7 @@
       <row>180</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2876550" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="359" name="Image 359" descr="Picture"/>
@@ -9112,7 +9112,7 @@
       <row>180</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2876550" cy="2009775"/>
+    <ext cx="2809875" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="360" name="Image 360" descr="Picture"/>
@@ -9430,15 +9430,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="3000" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9474,12 +9474,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Min Conc nM</t>
+          <t>MinConc nM</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Max Conc nM</t>
+          <t>MaxConc nM</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.18</t>
+          <t>28.50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -9753,22 +9753,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.24e-06</t>
+          <t>7.43e-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>22.81</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>51.92</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -9899,7 +9899,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27.15</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -10319,7 +10319,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -10403,7 +10403,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -10529,12 +10529,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>83.33333333333333</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1666.666666666667</t>
+          <t>1666.7</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>28.70</t>
+          <t>28.97</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -10823,7 +10823,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -10845,22 +10845,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.58e-06</t>
+          <t>4.96e-06</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>27.18</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>41.95</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -10971,22 +10971,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5.27e-06</t>
+          <t>7.57e-06</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>46.52</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -11033,7 +11033,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -11139,27 +11139,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.59e-06</t>
+          <t>2.76e-06</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>7.75</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.22</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>64.88</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -11181,22 +11181,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2.64e-06</t>
+          <t>1.03e-05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>27.41</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-0.55</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>28.79</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -11223,12 +11223,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2.67e-06</t>
+          <t>2.66e-06</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.58</t>
+          <t>17.66</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -11438,7 +11438,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>30.51</t>
+          <t>30.50</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -11559,22 +11559,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7.58e-06</t>
+          <t>9.54e-06</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>47.20</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -11643,22 +11643,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8.25e-06</t>
+          <t>8.30e-06</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>69.34</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>105.88</t>
+          <t>105.87</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -11915,7 +11915,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -12083,7 +12083,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>26.93</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -12483,22 +12483,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>5.68e-06</t>
+          <t>6.57e-06</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>59.96</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>28.53</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -13007,7 +13007,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>26.54</t>
+          <t>28.06</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -13664,7 +13664,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>27.11</t>
+          <t>27.21</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -13701,12 +13701,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4.24e-06</t>
+          <t>4.42e-06</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -13716,12 +13716,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>65.29</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -13763,7 +13763,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -13973,7 +13973,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>83.33333333333333</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -14183,7 +14183,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -14415,22 +14415,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>6.14e-06</t>
+          <t>7.93e-06</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-1.12</t>
+          <t>-1.51</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>52.68</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -14499,12 +14499,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>3.29e-06</t>
+          <t>4.97e-06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>15.40</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -14514,12 +14514,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>36.12</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>83.33333333333333</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -14729,7 +14729,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -14813,7 +14813,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -14855,7 +14855,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -15213,22 +15213,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>5.62e-06</t>
+          <t>6.51e-06</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.63</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>68.15</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -15522,12 +15522,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>115.33</t>
+          <t>115.32</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -15591,22 +15591,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>4.73e-06</t>
+          <t>5.44e-06</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>60.14</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -15653,7 +15653,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -15969,27 +15969,27 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2.68e-06</t>
+          <t>3.68e-06</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-1.53</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>48.48</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -16053,22 +16053,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.59e-06</t>
+          <t>4.73e-06</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.70</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>65.86</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -16095,27 +16095,27 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1.97e-06</t>
+          <t>2.50e-06</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>47.46</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -16152,7 +16152,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>119.92</t>
+          <t>119.90</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -16199,7 +16199,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -16236,7 +16236,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>84.92</t>
+          <t>84.93</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -16367,7 +16367,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -16493,7 +16493,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -16515,27 +16515,27 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>3.21e-06</t>
+          <t>3.23e-06</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>119.06</t>
+          <t>120.00</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -16557,27 +16557,27 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3.42e-06</t>
+          <t>4.93e-06</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>70.00</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -16787,7 +16787,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -16871,7 +16871,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>166.6666666666667</t>
+          <t>166.7</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">

--- a/tools/doseResponse/DR_Excel.xlsx
+++ b/tools/doseResponse/DR_Excel.xlsx
@@ -2137,7 +2137,7 @@
       <row>41</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2847975" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="81" name="Image 81" descr="Picture"/>
@@ -2162,7 +2162,7 @@
       <row>41</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2847975" cy="2009775"/>
+    <ext cx="2867025" cy="2009775"/>
     <pic>
       <nvPicPr>
         <cNvPr id="82" name="Image 82" descr="Picture"/>
@@ -9422,7 +9422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9439,6 +9439,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="13" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9459,30 +9460,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>IC50 std</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Slope</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Bottom</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Top</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MinConc nM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MaxConc nM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Graph</t>
         </is>
@@ -9506,29 +9512,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.88e-07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>3.10</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-1.31</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>97.77</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3" ht="160" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -9548,29 +9560,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.70e-07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>5.82</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-1.21</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>113.35</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4" ht="160" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -9590,29 +9608,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.29e-08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.92</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>77.52</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5" ht="160" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -9632,29 +9656,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.50</t>
+          <t>9.68e-08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>27.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>100.53</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6" ht="160" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -9674,29 +9704,35 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>6.23e-07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>4.08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-0.72</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>80.01</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7" ht="160" customHeight="1">
       <c r="A7" t="inlineStr">
@@ -9716,29 +9752,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>9.11e-06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-0.68</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8" ht="160" customHeight="1">
       <c r="A8" t="inlineStr">
@@ -9753,34 +9795,40 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.43e-06</t>
+          <t>5.25e-06</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.34e-03</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>21.73</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>51.92</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9" ht="160" customHeight="1">
       <c r="A9" t="inlineStr">
@@ -9800,29 +9848,35 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.81e-06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-0.72</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10" ht="160" customHeight="1">
       <c r="A10" t="inlineStr">
@@ -9842,29 +9896,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>5.71e-08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>109.04</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11" ht="160" customHeight="1">
       <c r="A11" t="inlineStr">
@@ -9884,29 +9944,35 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>2.02e-05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>0.25</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12" ht="160" customHeight="1">
       <c r="A12" t="inlineStr">
@@ -9926,29 +9992,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.84e-07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>5.26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-0.09</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>92.75</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13" ht="160" customHeight="1">
       <c r="A13" t="inlineStr">
@@ -9968,29 +10040,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.65e-07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>6.76</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-0.43</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>87.12</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14" ht="160" customHeight="1">
       <c r="A14" t="inlineStr">
@@ -10010,29 +10088,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>3.03e-08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-0.53</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>112.14</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15" ht="160" customHeight="1">
       <c r="A15" t="inlineStr">
@@ -10052,29 +10136,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>1.41e-05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16" ht="160" customHeight="1">
       <c r="A16" t="inlineStr">
@@ -10094,29 +10184,35 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.38e-07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-0.80</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17" ht="160" customHeight="1">
       <c r="A17" t="inlineStr">
@@ -10136,29 +10232,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2.00e-07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>3.34</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-0.42</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>86.95</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18" ht="160" customHeight="1">
       <c r="A18" t="inlineStr">
@@ -10178,29 +10280,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>5.30e-06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-1.37</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19" ht="160" customHeight="1">
       <c r="A19" t="inlineStr">
@@ -10220,29 +10328,35 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>1.43e-08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>5.41</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-0.11</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>109.60</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20" ht="160" customHeight="1">
       <c r="A20" t="inlineStr">
@@ -10262,29 +10376,35 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>27.32</t>
+          <t>1.22e-02</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21" ht="160" customHeight="1">
       <c r="A21" t="inlineStr">
@@ -10304,29 +10424,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1.12e-07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-1.26</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>99.54</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22" ht="160" customHeight="1">
       <c r="A22" t="inlineStr">
@@ -10346,29 +10472,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>2.59e-08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>4.95</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-1.21</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>104.78</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23" ht="160" customHeight="1">
       <c r="A23" t="inlineStr">
@@ -10388,29 +10520,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1.67e-08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>95.95</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24" ht="160" customHeight="1">
       <c r="A24" t="inlineStr">
@@ -10430,29 +10568,35 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>2.28e-06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25" ht="160" customHeight="1">
       <c r="A25" t="inlineStr">
@@ -10472,29 +10616,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>1.96e-08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>4.84</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-0.65</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>104.26</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26" ht="160" customHeight="1">
       <c r="A26" t="inlineStr">
@@ -10514,29 +10664,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>1.75e-03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>7.25</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-0.81</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>119.99</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>83.3</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>1666.7</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27" ht="160" customHeight="1">
       <c r="A27" t="inlineStr">
@@ -10556,29 +10712,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1.26e-08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>28.97</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28" ht="160" customHeight="1">
       <c r="A28" t="inlineStr">
@@ -10598,29 +10760,35 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>1.67e-07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>3.41</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-0.34</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>116.22</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29" ht="160" customHeight="1">
       <c r="A29" t="inlineStr">
@@ -10640,29 +10808,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>7.18e-07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-1.19</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>89.10</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30" ht="160" customHeight="1">
       <c r="A30" t="inlineStr">
@@ -10682,29 +10856,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>1.31e-05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>0.22</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31" ht="160" customHeight="1">
       <c r="A31" t="inlineStr">
@@ -10724,29 +10904,35 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>6.15e-07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-0.59</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>97.70</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32" ht="160" customHeight="1">
       <c r="A32" t="inlineStr">
@@ -10766,29 +10952,35 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>2.57e-07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-1.04</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33" ht="160" customHeight="1">
       <c r="A33" t="inlineStr">
@@ -10808,29 +11000,35 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>2.39e-06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-1.43</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34" ht="160" customHeight="1">
       <c r="A34" t="inlineStr">
@@ -10845,34 +11043,40 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4.96e-06</t>
+          <t>3.23e-06</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>7.22e-07</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35" ht="160" customHeight="1">
       <c r="A35" t="inlineStr">
@@ -10892,29 +11096,35 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>2.08e-08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-0.21</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>112.02</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36" ht="160" customHeight="1">
       <c r="A36" t="inlineStr">
@@ -10934,29 +11144,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>8.73e-08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>4.59</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-1.01</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>107.31</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37" ht="160" customHeight="1">
       <c r="A37" t="inlineStr">
@@ -10971,34 +11187,40 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>7.57e-06</t>
+          <t>5.55e-06</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.92e-07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-1.17</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38" ht="160" customHeight="1">
       <c r="A38" t="inlineStr">
@@ -11018,29 +11240,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>3.21e-07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>3.07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-0.91</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>108.75</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39" ht="160" customHeight="1">
       <c r="A39" t="inlineStr">
@@ -11060,29 +11288,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>1.07e-07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1.03</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>103.10</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40" ht="160" customHeight="1">
       <c r="A40" t="inlineStr">
@@ -11102,29 +11336,35 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>1.80e-06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-0.42</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41" ht="160" customHeight="1">
       <c r="A41" t="inlineStr">
@@ -11139,34 +11379,40 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2.76e-06</t>
+          <t>2.59e-06</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>1.43e-07</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.98</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
+          <t>64.88</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42" ht="160" customHeight="1">
       <c r="A42" t="inlineStr">
@@ -11181,34 +11427,40 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1.03e-05</t>
+          <t>5.71e-06</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.83e-05</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-5.16</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-3.42</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43" ht="160" customHeight="1">
       <c r="A43" t="inlineStr">
@@ -11228,29 +11480,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17.66</t>
+          <t>2.96e-03</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>-0.08</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>72.85</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44" ht="160" customHeight="1">
       <c r="A44" t="inlineStr">
@@ -11270,29 +11528,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>1.79e-05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-0.45</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45" ht="160" customHeight="1">
       <c r="A45" t="inlineStr">
@@ -11312,29 +11576,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>1.91e-08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>5.56</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>84.98</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46" ht="160" customHeight="1">
       <c r="A46" t="inlineStr">
@@ -11354,29 +11624,35 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>1.55e-06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>77.62</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47" ht="160" customHeight="1">
       <c r="A47" t="inlineStr">
@@ -11396,29 +11672,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>3.34e-06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-0.41</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48" ht="160" customHeight="1">
       <c r="A48" t="inlineStr">
@@ -11438,29 +11720,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>30.50</t>
+          <t>1.03e-02</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
+          <t>30.51</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>97.30</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49" ht="160" customHeight="1">
       <c r="A49" t="inlineStr">
@@ -11480,29 +11768,35 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>4.45e-07</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-0.58</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50" ht="160" customHeight="1">
       <c r="A50" t="inlineStr">
@@ -11522,29 +11816,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>8.43e-07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-0.42</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>71.77</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51" ht="160" customHeight="1">
       <c r="A51" t="inlineStr">
@@ -11559,34 +11859,40 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>9.54e-06</t>
+          <t>7.87e-06</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>2.94e-06</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52" ht="160" customHeight="1">
       <c r="A52" t="inlineStr">
@@ -11606,29 +11912,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>1.05e-05</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>0.26</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53" ht="160" customHeight="1">
       <c r="A53" t="inlineStr">
@@ -11643,34 +11955,40 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>8.30e-06</t>
+          <t>8.25e-06</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.99e-06</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
+          <t>69.34</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54" ht="160" customHeight="1">
       <c r="A54" t="inlineStr">
@@ -11690,29 +12008,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>2.70e-08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>4.35</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-0.02</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>119.75</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55" ht="160" customHeight="1">
       <c r="A55" t="inlineStr">
@@ -11732,29 +12056,35 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>4.03e-08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>3.49</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-0.45</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>96.35</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56" ht="160" customHeight="1">
       <c r="A56" t="inlineStr">
@@ -11774,29 +12104,35 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>1.56e-06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>3.09</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-1.21</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>105.87</t>
-        </is>
-      </c>
       <c r="G56" t="inlineStr">
         <is>
+          <t>105.88</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57" ht="160" customHeight="1">
       <c r="A57" t="inlineStr">
@@ -11816,29 +12152,35 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>7.81e-06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>1.94</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-0.40</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58" ht="160" customHeight="1">
       <c r="A58" t="inlineStr">
@@ -11858,29 +12200,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>7.73e-07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-0.62</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>96.13</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59" ht="160" customHeight="1">
       <c r="A59" t="inlineStr">
@@ -11900,29 +12248,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>2.47e-04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>6.47</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-0.34</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60" ht="160" customHeight="1">
       <c r="A60" t="inlineStr">
@@ -11942,29 +12296,35 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>2.46e-08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>3.83</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-0.87</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>95.01</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61" ht="160" customHeight="1">
       <c r="A61" t="inlineStr">
@@ -11984,29 +12344,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>4.09e-07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-3.36</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62" ht="160" customHeight="1">
       <c r="A62" t="inlineStr">
@@ -12026,29 +12392,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>6.15e-06</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>5.81</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-1.31</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63" ht="160" customHeight="1">
       <c r="A63" t="inlineStr">
@@ -12068,29 +12440,35 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>9.66e-05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t>15.10</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>3.14</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>103.59</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64" ht="160" customHeight="1">
       <c r="A64" t="inlineStr">
@@ -12110,29 +12488,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>8.60e-09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-1.22</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>104.49</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65" ht="160" customHeight="1">
       <c r="A65" t="inlineStr">
@@ -12152,29 +12536,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>2.79e-05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t>5.66</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-1.24</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66" ht="160" customHeight="1">
       <c r="A66" t="inlineStr">
@@ -12194,29 +12584,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>8.00e-06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>0.43</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67" ht="160" customHeight="1">
       <c r="A67" t="inlineStr">
@@ -12236,29 +12632,35 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>3.06e-07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t>3.56</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-1.27</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68" ht="160" customHeight="1">
       <c r="A68" t="inlineStr">
@@ -12278,29 +12680,35 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>6.44e-08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-1.87</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>113.18</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69" ht="160" customHeight="1">
       <c r="A69" t="inlineStr">
@@ -12320,29 +12728,35 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>1.11e-06</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-1.41</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>112.99</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70" ht="160" customHeight="1">
       <c r="A70" t="inlineStr">
@@ -12362,29 +12776,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>5.98e-07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>3.79</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>74.84</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>2500.0</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71" ht="160" customHeight="1">
       <c r="A71" t="inlineStr">
@@ -12404,29 +12824,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>1.46e-05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-0.92</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72" ht="160" customHeight="1">
       <c r="A72" t="inlineStr">
@@ -12441,34 +12867,40 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>5.21e-06</t>
+          <t>5.20e-06</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>26.93</t>
+          <t>1.86e-08</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>-0.64</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73" ht="160" customHeight="1">
       <c r="A73" t="inlineStr">
@@ -12483,34 +12915,40 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>6.57e-06</t>
+          <t>5.68e-06</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>6.43e-07</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
+          <t>59.96</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74" ht="160" customHeight="1">
       <c r="A74" t="inlineStr">
@@ -12530,29 +12968,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>1.06e-07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-1.65</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>104.71</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75" ht="160" customHeight="1">
       <c r="A75" t="inlineStr">
@@ -12572,29 +13016,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>4.57e-08</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>5.19</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>-0.84</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>108.26</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76" ht="160" customHeight="1">
       <c r="A76" t="inlineStr">
@@ -12614,29 +13064,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>4.60e-06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-0.52</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77" ht="160" customHeight="1">
       <c r="A77" t="inlineStr">
@@ -12656,29 +13112,35 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>3.47e-08</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>1.66</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>77.34</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78" ht="160" customHeight="1">
       <c r="A78" t="inlineStr">
@@ -12698,29 +13160,35 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>2.24e-07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-0.18</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79" ht="160" customHeight="1">
       <c r="A79" t="inlineStr">
@@ -12740,29 +13208,35 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>5.89e-08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-0.92</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>108.29</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80" ht="160" customHeight="1">
       <c r="A80" t="inlineStr">
@@ -12782,29 +13256,35 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>2.93e-06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>2.07</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-0.79</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81" ht="160" customHeight="1">
       <c r="A81" t="inlineStr">
@@ -12824,29 +13304,35 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>1.39e-07</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-0.18</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>85.48</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82" ht="160" customHeight="1">
       <c r="A82" t="inlineStr">
@@ -12866,29 +13352,35 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>4.13e-06</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t>3.31</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-0.20</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83" ht="160" customHeight="1">
       <c r="A83" t="inlineStr">
@@ -12908,29 +13400,35 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>8.88e-08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>2.69</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-1.40</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>111.01</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84" ht="160" customHeight="1">
       <c r="A84" t="inlineStr">
@@ -12950,29 +13448,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>2.43e-08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-0.00</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85" ht="160" customHeight="1">
       <c r="A85" t="inlineStr">
@@ -12992,29 +13496,35 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>3.96e-06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>-0.56</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86" ht="160" customHeight="1">
       <c r="A86" t="inlineStr">
@@ -13034,29 +13544,35 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>4.63e-06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>-0.38</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87" ht="160" customHeight="1">
       <c r="A87" t="inlineStr">
@@ -13076,29 +13592,35 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>1.04e-05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-0.49</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88" ht="160" customHeight="1">
       <c r="A88" t="inlineStr">
@@ -13118,29 +13640,35 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>1.54e-07</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>3.78</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>-0.89</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>87.53</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89" ht="160" customHeight="1">
       <c r="A89" t="inlineStr">
@@ -13160,29 +13688,35 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>28.06</t>
+          <t>1.42e-07</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>28.54</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>3.25</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90" ht="160" customHeight="1">
       <c r="A90" t="inlineStr">
@@ -13202,29 +13736,35 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>2.32e-06</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>-0.94</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91" ht="160" customHeight="1">
       <c r="A91" t="inlineStr">
@@ -13244,29 +13784,35 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>2.16e-06</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>-1.29</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92" ht="160" customHeight="1">
       <c r="A92" t="inlineStr">
@@ -13286,29 +13832,35 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>2.17e-07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-2.24</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93" ht="160" customHeight="1">
       <c r="A93" t="inlineStr">
@@ -13328,29 +13880,35 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>8.08e-06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-1.00</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94" ht="160" customHeight="1">
       <c r="A94" t="inlineStr">
@@ -13370,29 +13928,35 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>1.17e-08</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>7.86</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95" ht="160" customHeight="1">
       <c r="A95" t="inlineStr">
@@ -13412,29 +13976,35 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>1.38e-06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>-0.98</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>101.18</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96" ht="160" customHeight="1">
       <c r="A96" t="inlineStr">
@@ -13454,29 +14024,35 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>2.74e-08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t>5.92</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>0.65</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>115.99</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97" ht="160" customHeight="1">
       <c r="A97" t="inlineStr">
@@ -13496,29 +14072,35 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>7.58e-07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>0.85</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-20.00</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>90.97</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98" ht="160" customHeight="1">
       <c r="A98" t="inlineStr">
@@ -13538,29 +14120,35 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>6.46e-07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t>2.10</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99" ht="160" customHeight="1">
       <c r="A99" t="inlineStr">
@@ -13580,29 +14168,35 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>2.48e-06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>-0.79</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100" ht="160" customHeight="1">
       <c r="A100" t="inlineStr">
@@ -13622,29 +14216,35 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>9.46e-07</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t>5.29</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-0.57</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>95.68</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101" ht="160" customHeight="1">
       <c r="A101" t="inlineStr">
@@ -13664,29 +14264,35 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>4.74e-08</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>103.38</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102" ht="160" customHeight="1">
       <c r="A102" t="inlineStr">
@@ -13701,34 +14307,40 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>4.42e-06</t>
+          <t>4.24e-06</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.84e-06</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>-1.15</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
       <c r="G102" t="inlineStr">
         <is>
+          <t>65.29</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103" ht="160" customHeight="1">
       <c r="A103" t="inlineStr">
@@ -13748,29 +14360,35 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>2.80e-08</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>-0.54</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>116.89</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104" ht="160" customHeight="1">
       <c r="A104" t="inlineStr">
@@ -13790,29 +14408,35 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>7.47e-06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105" ht="160" customHeight="1">
       <c r="A105" t="inlineStr">
@@ -13832,29 +14456,35 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>6.70e-07</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106" ht="160" customHeight="1">
       <c r="A106" t="inlineStr">
@@ -13874,29 +14504,35 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>3.48e-07</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107" ht="160" customHeight="1">
       <c r="A107" t="inlineStr">
@@ -13916,29 +14552,35 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>7.21e-06</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108" ht="160" customHeight="1">
       <c r="A108" t="inlineStr">
@@ -13958,29 +14600,35 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>7.50e-05</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>4.86</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>-0.51</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>83.3</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>1000.0</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109" ht="160" customHeight="1">
       <c r="A109" t="inlineStr">
@@ -14000,29 +14648,35 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>3.06e-07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>-0.32</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110" ht="160" customHeight="1">
       <c r="A110" t="inlineStr">
@@ -14042,29 +14696,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>4.55e-08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t>3.97</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>101.33</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111" ht="160" customHeight="1">
       <c r="A111" t="inlineStr">
@@ -14084,29 +14744,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>4.18e-07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>1.81</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>-1.65</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>119.39</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112" ht="160" customHeight="1">
       <c r="A112" t="inlineStr">
@@ -14126,29 +14792,35 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>3.92e-07</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>0.91</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113" ht="160" customHeight="1">
       <c r="A113" t="inlineStr">
@@ -14168,29 +14840,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>4.11e-08</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>114.78</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114" ht="160" customHeight="1">
       <c r="A114" t="inlineStr">
@@ -14210,29 +14888,35 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>7.54e-08</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>-0.46</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>88.14</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115" ht="160" customHeight="1">
       <c r="A115" t="inlineStr">
@@ -14252,29 +14936,35 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>1.67e-07</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
           <t>3.02</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>-1.77</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>100.87</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116" ht="160" customHeight="1">
       <c r="A116" t="inlineStr">
@@ -14294,29 +14984,35 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>9.86e-08</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>-0.16</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>87.30</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117" ht="160" customHeight="1">
       <c r="A117" t="inlineStr">
@@ -14336,29 +15032,35 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>6.83e-06</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>2.63</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>-1.04</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118" ht="160" customHeight="1">
       <c r="A118" t="inlineStr">
@@ -14378,29 +15080,35 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>2.32e-06</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t>8.92</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1.27</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119" ht="160" customHeight="1">
       <c r="A119" t="inlineStr">
@@ -14415,34 +15123,40 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>7.93e-06</t>
+          <t>6.14e-06</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>5.63e-08</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-1.51</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
+          <t>52.68</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120" ht="160" customHeight="1">
       <c r="A120" t="inlineStr">
@@ -14462,29 +15176,35 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>1.02e-06</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>-1.10</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>106.04</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121" ht="160" customHeight="1">
       <c r="A121" t="inlineStr">
@@ -14499,34 +15219,40 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>4.97e-06</t>
+          <t>4.44e-06</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>2.10e-03</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
           <t>0.72</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>70.00</t>
-        </is>
-      </c>
       <c r="G121" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122" ht="160" customHeight="1">
       <c r="A122" t="inlineStr">
@@ -14546,29 +15272,35 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>7.90e-07</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>1.90</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1.13</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>83.3</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>1000.0</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123" ht="160" customHeight="1">
       <c r="A123" t="inlineStr">
@@ -14588,29 +15320,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>4.56e-08</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>-1.08</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>106.14</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124" ht="160" customHeight="1">
       <c r="A124" t="inlineStr">
@@ -14630,29 +15368,35 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>4.40e-06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
           <t>4.98</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>-0.62</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>79.11</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125" ht="160" customHeight="1">
       <c r="A125" t="inlineStr">
@@ -14672,29 +15416,35 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>1.95e-06</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>2.93</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr"/>
     </row>
     <row r="126" ht="160" customHeight="1">
       <c r="A126" t="inlineStr">
@@ -14714,29 +15464,35 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>1.24e-07</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>115.79</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="I126" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr"/>
     </row>
     <row r="127" ht="160" customHeight="1">
       <c r="A127" t="inlineStr">
@@ -14756,29 +15512,35 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>2.86e-08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>3.31</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>-0.90</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>118.43</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="I127" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr"/>
     </row>
     <row r="128" ht="160" customHeight="1">
       <c r="A128" t="inlineStr">
@@ -14798,29 +15560,35 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>2.60e-07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
           <t>5.34</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>-0.18</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>74.33</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
+      <c r="I128" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr"/>
     </row>
     <row r="129" ht="160" customHeight="1">
       <c r="A129" t="inlineStr">
@@ -14840,29 +15608,35 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>7.72e-07</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>109.30</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
+      <c r="I129" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr"/>
     </row>
     <row r="130" ht="160" customHeight="1">
       <c r="A130" t="inlineStr">
@@ -14882,29 +15656,35 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>2.89e-08</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>3.60</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>-0.60</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>83.93</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="I130" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr"/>
     </row>
     <row r="131" ht="160" customHeight="1">
       <c r="A131" t="inlineStr">
@@ -14924,29 +15704,35 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>7.43e-07</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>-0.83</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>94.01</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="I131" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr"/>
     </row>
     <row r="132" ht="160" customHeight="1">
       <c r="A132" t="inlineStr">
@@ -14966,29 +15752,35 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>1.58e-08</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
           <t>3.85</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>97.92</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="I132" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr"/>
     </row>
     <row r="133" ht="160" customHeight="1">
       <c r="A133" t="inlineStr">
@@ -15008,29 +15800,35 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>1.00e-07</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>108.73</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="I133" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr"/>
     </row>
     <row r="134" ht="160" customHeight="1">
       <c r="A134" t="inlineStr">
@@ -15050,29 +15848,35 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>2.38e-08</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
           <t>5.36</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>-1.33</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>91.34</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="I134" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr"/>
     </row>
     <row r="135" ht="160" customHeight="1">
       <c r="A135" t="inlineStr">
@@ -15092,29 +15896,35 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>2.19e-08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
           <t>2.91</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>90.13</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
+      <c r="I135" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136" ht="160" customHeight="1">
       <c r="A136" t="inlineStr">
@@ -15134,29 +15944,35 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>4.32e-05</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>2.17</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
+      <c r="I136" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr"/>
     </row>
     <row r="137" ht="160" customHeight="1">
       <c r="A137" t="inlineStr">
@@ -15176,29 +15992,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>2.69e-07</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>-0.55</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>85.05</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
+      <c r="I137" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr"/>
     </row>
     <row r="138" ht="160" customHeight="1">
       <c r="A138" t="inlineStr">
@@ -15213,34 +16035,40 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>6.51e-06</t>
+          <t>5.65e-06</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>8.99e-04</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>-0.63</t>
+          <t>18.00</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
+          <t>68.15</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="I138" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr"/>
     </row>
     <row r="139" ht="160" customHeight="1">
       <c r="A139" t="inlineStr">
@@ -15260,29 +16088,35 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>2.71e-05</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
           <t>2.98</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>0.97</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="I139" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr"/>
     </row>
     <row r="140" ht="160" customHeight="1">
       <c r="A140" t="inlineStr">
@@ -15302,29 +16136,35 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>8.48e-07</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>-0.74</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="I140" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr"/>
     </row>
     <row r="141" ht="160" customHeight="1">
       <c r="A141" t="inlineStr">
@@ -15344,29 +16184,35 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>3.33e-07</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>-1.21</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="I141" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr"/>
     </row>
     <row r="142" ht="160" customHeight="1">
       <c r="A142" t="inlineStr">
@@ -15386,29 +16232,35 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>1.68e-07</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>-0.59</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>100.72</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr"/>
     </row>
     <row r="143" ht="160" customHeight="1">
       <c r="A143" t="inlineStr">
@@ -15428,29 +16280,35 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>7.08e-08</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>110.01</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="I143" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr"/>
     </row>
     <row r="144" ht="160" customHeight="1">
       <c r="A144" t="inlineStr">
@@ -15470,29 +16328,35 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>4.57e-08</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>-0.33</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>115.20</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="I144" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr"/>
     </row>
     <row r="145" ht="160" customHeight="1">
       <c r="A145" t="inlineStr">
@@ -15512,29 +16376,35 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>4.64e-07</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>-1.91</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>115.32</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
+      <c r="I145" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr"/>
     </row>
     <row r="146" ht="160" customHeight="1">
       <c r="A146" t="inlineStr">
@@ -15554,29 +16424,35 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>2.22e-06</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>-1.94</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
+      <c r="I146" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr"/>
     </row>
     <row r="147" ht="160" customHeight="1">
       <c r="A147" t="inlineStr">
@@ -15591,34 +16467,40 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>5.44e-06</t>
+          <t>4.73e-06</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>6.83e-08</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.84</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="I147" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr"/>
     </row>
     <row r="148" ht="160" customHeight="1">
       <c r="A148" t="inlineStr">
@@ -15638,29 +16520,35 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>4.49e-06</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>-0.47</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
+      <c r="I148" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr"/>
     </row>
     <row r="149" ht="160" customHeight="1">
       <c r="A149" t="inlineStr">
@@ -15680,29 +16568,35 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>6.67e-06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>4.63</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>-0.19</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="I149" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr"/>
     </row>
     <row r="150" ht="160" customHeight="1">
       <c r="A150" t="inlineStr">
@@ -15722,29 +16616,35 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>4.87e-08</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>3.94</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>0.51</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>98.64</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
+      <c r="I150" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr"/>
     </row>
     <row r="151" ht="160" customHeight="1">
       <c r="A151" t="inlineStr">
@@ -15764,29 +16664,35 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>6.07e-08</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>-0.84</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>85.27</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="I151" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr"/>
     </row>
     <row r="152" ht="160" customHeight="1">
       <c r="A152" t="inlineStr">
@@ -15806,29 +16712,35 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>3.33e-07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>-0.89</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>91.67</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="I152" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr"/>
     </row>
     <row r="153" ht="160" customHeight="1">
       <c r="A153" t="inlineStr">
@@ -15848,29 +16760,35 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>4.01e-07</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
           <t>3.59</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>-0.42</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>76.00</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="I153" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr"/>
     </row>
     <row r="154" ht="160" customHeight="1">
       <c r="A154" t="inlineStr">
@@ -15890,29 +16808,35 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>1.73e-07</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>6.65</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>78.39</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="I154" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr"/>
     </row>
     <row r="155" ht="160" customHeight="1">
       <c r="A155" t="inlineStr">
@@ -15932,29 +16856,35 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
+          <t>1.08e-07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
           <t>6.07</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>-1.48</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>98.35</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="I155" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr"/>
     </row>
     <row r="156" ht="160" customHeight="1">
       <c r="A156" t="inlineStr">
@@ -15969,34 +16899,40 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>3.68e-06</t>
+          <t>2.78e-06</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>1.55e-07</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-1.56</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
+          <t>50.01</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="I156" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr"/>
     </row>
     <row r="157" ht="160" customHeight="1">
       <c r="A157" t="inlineStr">
@@ -16016,29 +16952,35 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>7.87e-06</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>2.14</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>-1.00</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="I157" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr"/>
     </row>
     <row r="158" ht="160" customHeight="1">
       <c r="A158" t="inlineStr">
@@ -16053,34 +16995,40 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>4.73e-06</t>
+          <t>4.59e-06</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>1.08e-07</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>-0.70</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
+      <c r="I158" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr"/>
     </row>
     <row r="159" ht="160" customHeight="1">
       <c r="A159" t="inlineStr">
@@ -16095,34 +17043,40 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2.50e-06</t>
+          <t>2.03e-06</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>1.44e-07</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
+      <c r="I159" t="inlineStr">
         <is>
           <t>2500.0</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr"/>
     </row>
     <row r="160" ht="160" customHeight="1">
       <c r="A160" t="inlineStr">
@@ -16142,29 +17096,35 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>1.80e-05</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>1.28</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>-2.74</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>119.90</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
+          <t>119.93</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="I160" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr"/>
     </row>
     <row r="161" ht="160" customHeight="1">
       <c r="A161" t="inlineStr">
@@ -16184,29 +17144,35 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>3.94e-06</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
           <t>2.65</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="I161" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr"/>
     </row>
     <row r="162" ht="160" customHeight="1">
       <c r="A162" t="inlineStr">
@@ -16226,29 +17192,35 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
+          <t>2.93e-06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>84.93</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="I162" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr"/>
     </row>
     <row r="163" ht="160" customHeight="1">
       <c r="A163" t="inlineStr">
@@ -16268,29 +17240,35 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.96e-08</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>-1.13</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>86.52</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="I163" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr"/>
     </row>
     <row r="164" ht="160" customHeight="1">
       <c r="A164" t="inlineStr">
@@ -16310,29 +17288,35 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>1.67e-06</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>0.68</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>84.92</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="I164" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr"/>
     </row>
     <row r="165" ht="160" customHeight="1">
       <c r="A165" t="inlineStr">
@@ -16352,29 +17336,35 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>2.78e-08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>1.10</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>107.31</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
+      <c r="I165" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr"/>
     </row>
     <row r="166" ht="160" customHeight="1">
       <c r="A166" t="inlineStr">
@@ -16394,29 +17384,35 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>1.37e-07</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>7.30</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>1.78</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>86.43</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="I166" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr"/>
     </row>
     <row r="167" ht="160" customHeight="1">
       <c r="A167" t="inlineStr">
@@ -16436,29 +17432,35 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>2.77e-08</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>0.24</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>90.50</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="I167" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr"/>
     </row>
     <row r="168" ht="160" customHeight="1">
       <c r="A168" t="inlineStr">
@@ -16478,29 +17480,35 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>1.37e-06</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>5.28</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="I168" t="inlineStr">
         <is>
           <t>2500.0</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr"/>
     </row>
     <row r="169" ht="160" customHeight="1">
       <c r="A169" t="inlineStr">
@@ -16520,29 +17528,35 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>7.49e-07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
           <t>2.82</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>1.52</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="I169" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr"/>
     </row>
     <row r="170" ht="160" customHeight="1">
       <c r="A170" t="inlineStr">
@@ -16557,34 +17571,40 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>4.93e-06</t>
+          <t>3.81e-06</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>9.38e-07</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>-0.90</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>70.00</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="I170" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr"/>
     </row>
     <row r="171" ht="160" customHeight="1">
       <c r="A171" t="inlineStr">
@@ -16604,29 +17624,35 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
+          <t>2.19e-05</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="I171" t="inlineStr">
         <is>
           <t>2500.0</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr"/>
     </row>
     <row r="172" ht="160" customHeight="1">
       <c r="A172" t="inlineStr">
@@ -16646,29 +17672,35 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>2.05e-05</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
           <t>1.41</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>12.67</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="I172" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr"/>
     </row>
     <row r="173" ht="160" customHeight="1">
       <c r="A173" t="inlineStr">
@@ -16688,29 +17720,35 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>2.66e-08</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
           <t>4.70</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>103.09</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="I173" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr"/>
     </row>
     <row r="174" ht="160" customHeight="1">
       <c r="A174" t="inlineStr">
@@ -16730,29 +17768,35 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>5.22e-08</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>0.54</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>74.32</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="I174" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr"/>
     </row>
     <row r="175" ht="160" customHeight="1">
       <c r="A175" t="inlineStr">
@@ -16772,29 +17816,35 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
+          <t>8.36e-07</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>-0.26</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="I175" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr"/>
     </row>
     <row r="176" ht="160" customHeight="1">
       <c r="A176" t="inlineStr">
@@ -16814,29 +17864,35 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>1.90e-06</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>-1.95</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>120.00</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="I176" t="inlineStr">
         <is>
           <t>2500.0</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr"/>
     </row>
     <row r="177" ht="160" customHeight="1">
       <c r="A177" t="inlineStr">
@@ -16856,29 +17912,35 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>6.31e-08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
           <t>5.25</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>-1.22</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>85.17</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>166.7</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
+      <c r="I177" t="inlineStr">
         <is>
           <t>5000.0</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr"/>
     </row>
     <row r="178" ht="160" customHeight="1">
       <c r="A178" t="inlineStr">
@@ -16898,29 +17960,35 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>1.07e-02</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
+          <t>27.10</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
           <t>1.95</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>103.64</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
+      <c r="I178" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr"/>
     </row>
     <row r="179" ht="160" customHeight="1">
       <c r="A179" t="inlineStr">
@@ -16940,29 +18008,35 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>1.20e-07</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>118.36</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>250.0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="I179" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr"/>
     </row>
     <row r="180" ht="160" customHeight="1">
       <c r="A180" t="inlineStr">
@@ -16982,29 +18056,35 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>15.08</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="I180" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr"/>
     </row>
     <row r="181" ht="160" customHeight="1">
       <c r="A181" t="inlineStr">
@@ -17024,29 +18104,35 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
           <t>1.29</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>-0.05</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="I181" t="inlineStr">
         <is>
           <t>10000.0</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tools/doseResponse/DR_Excel.xlsx
+++ b/tools/doseResponse/DR_Excel.xlsx
@@ -9641,11 +9641,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.68e-08</t>
+          <t>9.69e-08</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.65</v>
+        <v>27.62</v>
       </c>
       <c r="F5" t="n">
         <v>1.73</v>
@@ -10256,11 +10256,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.22e-02</t>
+          <t>3.37e-02</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.64</v>
+        <v>27.28</v>
       </c>
       <c r="F20" t="n">
         <v>2.07</v>
@@ -10543,11 +10543,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.26e-08</t>
+          <t>1.27e-08</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.97</v>
+        <v>28.7</v>
       </c>
       <c r="F27" t="n">
         <v>1.45</v>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.03e-02</t>
+          <t>1.05e-02</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9.66e-05</t>
+          <t>9.67e-05</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.45</v>
+        <v>28.48</v>
       </c>
       <c r="F77" t="n">
         <v>1.66</v>
@@ -13577,11 +13577,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4.74e-08</t>
+          <t>4.89e-08</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.89</v>
+        <v>27.97</v>
       </c>
       <c r="F101" t="n">
         <v>0.15</v>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.07e-02</t>
+          <t>1.04e-02</t>
         </is>
       </c>
       <c r="E178" t="n">

--- a/tools/doseResponse/DR_Excel.xlsx
+++ b/tools/doseResponse/DR_Excel.xlsx
@@ -9641,11 +9641,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.69e-08</t>
+          <t>9.68e-08</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>27.62</v>
+        <v>27.65</v>
       </c>
       <c r="F5" t="n">
         <v>1.73</v>
@@ -10256,11 +10256,11 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3.37e-02</t>
+          <t>1.22e-02</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>27.28</v>
+        <v>25.64</v>
       </c>
       <c r="F20" t="n">
         <v>2.07</v>
@@ -10543,11 +10543,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1.27e-08</t>
+          <t>1.26e-08</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.7</v>
+        <v>28.97</v>
       </c>
       <c r="F27" t="n">
         <v>1.45</v>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.05e-02</t>
+          <t>1.03e-02</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>9.67e-05</t>
+          <t>9.66e-05</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -12597,7 +12597,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.48</v>
+        <v>28.45</v>
       </c>
       <c r="F77" t="n">
         <v>1.66</v>
@@ -13577,11 +13577,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>4.89e-08</t>
+          <t>4.74e-08</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>27.97</v>
+        <v>28.89</v>
       </c>
       <c r="F101" t="n">
         <v>0.15</v>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>1.04e-02</t>
+          <t>1.07e-02</t>
         </is>
       </c>
       <c r="E178" t="n">
